--- a/DataDrivenGrid/src/test/resources/testData/BankManagerSuite.xlsx
+++ b/DataDrivenGrid/src/test/resources/testData/BankManagerSuite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>TestCases</t>
   </si>
@@ -75,15 +75,6 @@
   </si>
   <si>
     <t>firefox</t>
-  </si>
-  <si>
-    <t>gopal</t>
-  </si>
-  <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>mishra</t>
   </si>
 </sst>
 </file>
@@ -457,10 +448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,60 +513,54 @@
         <v>6787</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>5696</v>
-      </c>
-      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>7878</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -583,40 +568,12 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
         <v>19</v>
       </c>
     </row>
